--- a/루리웹_데이터.xlsx
+++ b/루리웹_데이터.xlsx
@@ -440,13 +440,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O278"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelCol="0"/>
+  <cols>
+    <col width="22.5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -460,11 +463,11 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>63105</v>
+        <v>63808</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>핫딜몰 링크</t>
+          <t>https://bbs.ruliweb.com/market/board/1020/read/63114?page=1</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -13226,6 +13229,122 @@
         <is>
           <t>네이버 가격비교 없음</t>
         </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>6월 26일 11시 54분</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>63813</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://bbs.ruliweb.com/market/board/1020/read/63813?page=1</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>[11번가아마존]레이저바실리스크얼티메이트충전독포함(109,29...</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>레이저바실리스크얼티메이트충전독포함(10929</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>https://www.11st.co.kr/products/pa/3530672559?&amp;trTypeCd;=MAG3&amp;trCtgrNo;=585021</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>10929</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>6월 26일 11시 54분</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>63810</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://bbs.ruliweb.com/market/board/1020/read/63810?page=1</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>[해피오더]파바,배라,던킨5~7천원할인(6/26)</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>파바배라던킨5~7천원할인(6/26)</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>링크없음</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>6월 26일 11시 54분</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>63809</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://bbs.ruliweb.com/market/board/1020/read/63809?page=1</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>[네이버페이]일일적립</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>일일적립</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>링크없음</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>999999</v>
       </c>
     </row>
   </sheetData>
@@ -13239,18 +13358,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelCol="0"/>
+  <cols>
+    <col width="22.5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>6월 26일 11시 27분</t>
+          <t>6월 26일 11시 54분</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -13262,13 +13384,13 @@
         <v>63813</v>
       </c>
       <c r="D1" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6월 26일 10시 30분</t>
+          <t>6월 26일 11시 53분</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -13277,7 +13399,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63813</v>
+        <v>63808</v>
       </c>
       <c r="D2" t="n">
         <v>279</v>
@@ -13286,7 +13408,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6월 6일 20시 1분</t>
+          <t>6월 26일 11시 52분</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -13295,16 +13417,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63140</v>
+        <v>63813</v>
       </c>
       <c r="D3" t="n">
-        <v>167</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6월 6일 19시 49분</t>
+          <t>6월 26일 11시 50분</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -13313,16 +13435,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63140</v>
+        <v>63813</v>
       </c>
       <c r="D4" t="n">
-        <v>167</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6월 5일 22시 59분</t>
+          <t>6월 26일 11시 49분</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -13331,16 +13453,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63121</v>
+        <v>63813</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6월 5일 22시 55분</t>
+          <t>6월 26일 11시 46분</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -13349,16 +13471,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63115</v>
+        <v>63813</v>
       </c>
       <c r="D6" t="n">
-        <v>144</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6월 5일 22시 42분</t>
+          <t>6월 26일 11시 44분</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -13367,16 +13489,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63115</v>
+        <v>63810</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6월 5일 22시 38분</t>
+          <t>6월 26일 11시 44분</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -13385,27 +13507,171 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63105</v>
+        <v>63813</v>
       </c>
       <c r="D8" t="n">
-        <v>124</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>6월 26일 11시 27분</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>63810</v>
+      </c>
+      <c r="D9" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6월 26일 10시 30분</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>63813</v>
+      </c>
+      <c r="D10" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6월 6일 20시 1분</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>63140</v>
+      </c>
+      <c r="D11" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6월 6일 19시 49분</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>63140</v>
+      </c>
+      <c r="D12" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6월 5일 22시 59분</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>63121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6월 5일 22시 55분</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>63115</v>
+      </c>
+      <c r="D14" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6월 5일 22시 42분</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>63115</v>
+      </c>
+      <c r="D15" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6월 5일 22시 38분</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>63105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>6월 5일 22시 22분</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>루리웹</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>루리웹</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>63110</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>114</v>
       </c>
     </row>
